--- a/biology/Botanique/Odette_Kahn/Odette_Kahn.xlsx
+++ b/biology/Botanique/Odette_Kahn/Odette_Kahn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Odette Kahn, née Odette Netter le 18 mars 1923 à Paris et morte le 14 novembre 1982 à Boulogne-Billancourt[1], est une figure dominante de la gastronomie et de l'œnologie en France. Elle est l'éditrice de La Revue du vin de France et de Cuisine et Vins de France. Elle est juge lors de la dégustation de Paris en 1976.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odette Kahn, née Odette Netter le 18 mars 1923 à Paris et morte le 14 novembre 1982 à Boulogne-Billancourt, est une figure dominante de la gastronomie et de l'œnologie en France. Elle est l'éditrice de La Revue du vin de France et de Cuisine et Vins de France. Elle est juge lors de la dégustation de Paris en 1976.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômée d'HEC Jeunes Filles, elle fut directrice adjointe, puis rédactrice en chef de la revue Cuisine et Vins de France et de La Revue du vin de France.
 À la suite du décès de Madeleine Decure, cofondatrice avec Maurice Edmond Saillant dit ‘Curnonsky’ de la revue Cuisine et Vins de France, elle prit la direction, en 1968, de la Société française d’éditions vinicoles - éditeur de Cuisine et Vins de France et de La Revue du vin de France.
@@ -548,7 +562,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mme Kahn était chevalière du Mérite national, chevalière du Mérite agricole et elle avait reçu la médaille de la Ville de Paris.
 </t>
